--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mmp9-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mmp9-Cd44.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.06507433333333333</v>
+        <v>0.1058806666666667</v>
       </c>
       <c r="H2">
-        <v>0.195223</v>
+        <v>0.317642</v>
       </c>
       <c r="I2">
-        <v>0.00278697288787583</v>
+        <v>0.01032015375515716</v>
       </c>
       <c r="J2">
-        <v>0.002786972887875831</v>
+        <v>0.01032015375515716</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N2">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O2">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P2">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q2">
-        <v>1.454071813820111</v>
+        <v>2.034301377821556</v>
       </c>
       <c r="R2">
-        <v>13.086646324381</v>
+        <v>18.308712400394</v>
       </c>
       <c r="S2">
-        <v>8.823235133871157E-05</v>
+        <v>0.0004593685383886852</v>
       </c>
       <c r="T2">
-        <v>8.82323513387116E-05</v>
+        <v>0.0004593685383886851</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.06507433333333333</v>
+        <v>0.1058806666666667</v>
       </c>
       <c r="H3">
-        <v>0.195223</v>
+        <v>0.317642</v>
       </c>
       <c r="I3">
-        <v>0.00278697288787583</v>
+        <v>0.01032015375515716</v>
       </c>
       <c r="J3">
-        <v>0.002786972887875831</v>
+        <v>0.01032015375515716</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>277.341392</v>
       </c>
       <c r="O3">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P3">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q3">
-        <v>6.015935396712889</v>
+        <v>9.78836382640711</v>
       </c>
       <c r="R3">
-        <v>54.143418570416</v>
+        <v>88.09527443766399</v>
       </c>
       <c r="S3">
-        <v>0.0003650439548506579</v>
+        <v>0.002210324602428565</v>
       </c>
       <c r="T3">
-        <v>0.000365043954850658</v>
+        <v>0.002210324602428565</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.06507433333333333</v>
+        <v>0.1058806666666667</v>
       </c>
       <c r="H4">
-        <v>0.195223</v>
+        <v>0.317642</v>
       </c>
       <c r="I4">
-        <v>0.00278697288787583</v>
+        <v>0.01032015375515716</v>
       </c>
       <c r="J4">
-        <v>0.002786972887875831</v>
+        <v>0.01032015375515716</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N4">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O4">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P4">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q4">
-        <v>15.87583500342</v>
+        <v>17.66703645513444</v>
       </c>
       <c r="R4">
-        <v>142.88251503078</v>
+        <v>159.00332809621</v>
       </c>
       <c r="S4">
-        <v>0.0009633377378639309</v>
+        <v>0.0039894190715957</v>
       </c>
       <c r="T4">
-        <v>0.0009633377378639312</v>
+        <v>0.0039894190715957</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.06507433333333333</v>
+        <v>0.1058806666666667</v>
       </c>
       <c r="H5">
-        <v>0.195223</v>
+        <v>0.317642</v>
       </c>
       <c r="I5">
-        <v>0.00278697288787583</v>
+        <v>0.01032015375515716</v>
       </c>
       <c r="J5">
-        <v>0.002786972887875831</v>
+        <v>0.01032015375515716</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N5">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O5">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P5">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q5">
-        <v>4.259682933607889</v>
+        <v>4.351606036717333</v>
       </c>
       <c r="R5">
-        <v>38.337146402471</v>
+        <v>39.16445433045599</v>
       </c>
       <c r="S5">
-        <v>0.0002584754326556953</v>
+        <v>0.0009826424572699506</v>
       </c>
       <c r="T5">
-        <v>0.0002584754326556954</v>
+        <v>0.0009826424572699506</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.06507433333333333</v>
+        <v>0.1058806666666667</v>
       </c>
       <c r="H6">
-        <v>0.195223</v>
+        <v>0.317642</v>
       </c>
       <c r="I6">
-        <v>0.00278697288787583</v>
+        <v>0.01032015375515716</v>
       </c>
       <c r="J6">
-        <v>0.002786972887875831</v>
+        <v>0.01032015375515716</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N6">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O6">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P6">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q6">
-        <v>18.32387218408522</v>
+        <v>11.86121924903355</v>
       </c>
       <c r="R6">
-        <v>164.914849656767</v>
+        <v>106.750973241302</v>
       </c>
       <c r="S6">
-        <v>0.001111883411166835</v>
+        <v>0.00267839908547426</v>
       </c>
       <c r="T6">
-        <v>0.001111883411166835</v>
+        <v>0.00267839908547426</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.578504666666667</v>
+        <v>7.578504666666666</v>
       </c>
       <c r="H7">
         <v>22.735514</v>
       </c>
       <c r="I7">
-        <v>0.3245686272105304</v>
+        <v>0.7386743572403152</v>
       </c>
       <c r="J7">
-        <v>0.3245686272105304</v>
+        <v>0.7386743572403152</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N7">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O7">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P7">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q7">
-        <v>169.3400371888175</v>
+        <v>145.6069646195442</v>
       </c>
       <c r="R7">
-        <v>1524.060334699358</v>
+        <v>1310.462681575898</v>
       </c>
       <c r="S7">
-        <v>0.01027546886951945</v>
+        <v>0.03287971941901728</v>
       </c>
       <c r="T7">
-        <v>0.01027546886951946</v>
+        <v>0.03287971941901728</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.578504666666667</v>
+        <v>7.578504666666666</v>
       </c>
       <c r="H8">
         <v>22.735514</v>
       </c>
       <c r="I8">
-        <v>0.3245686272105304</v>
+        <v>0.7386743572403152</v>
       </c>
       <c r="J8">
-        <v>0.3245686272105304</v>
+        <v>0.7386743572403152</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>277.341392</v>
       </c>
       <c r="O8">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P8">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q8">
-        <v>700.6110111772765</v>
+        <v>700.6110111772764</v>
       </c>
       <c r="R8">
-        <v>6305.499100595488</v>
+        <v>6305.499100595487</v>
       </c>
       <c r="S8">
-        <v>0.04251272619579918</v>
+        <v>0.1582059864345995</v>
       </c>
       <c r="T8">
-        <v>0.04251272619579918</v>
+        <v>0.1582059864345995</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.578504666666667</v>
+        <v>7.578504666666666</v>
       </c>
       <c r="H9">
         <v>22.735514</v>
       </c>
       <c r="I9">
-        <v>0.3245686272105304</v>
+        <v>0.7386743572403152</v>
       </c>
       <c r="J9">
-        <v>0.3245686272105304</v>
+        <v>0.7386743572403152</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N9">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O9">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P9">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q9">
-        <v>1848.88701117156</v>
+        <v>1264.534144301507</v>
       </c>
       <c r="R9">
-        <v>16639.98310054404</v>
+        <v>11380.80729871357</v>
       </c>
       <c r="S9">
-        <v>0.1121895402997277</v>
+        <v>0.2855462852964376</v>
       </c>
       <c r="T9">
-        <v>0.1121895402997277</v>
+        <v>0.2855462852964376</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.578504666666667</v>
+        <v>7.578504666666666</v>
       </c>
       <c r="H10">
         <v>22.735514</v>
       </c>
       <c r="I10">
-        <v>0.3245686272105304</v>
+        <v>0.7386743572403152</v>
       </c>
       <c r="J10">
-        <v>0.3245686272105304</v>
+        <v>0.7386743572403152</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N10">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O10">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P10">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q10">
-        <v>496.0792579388865</v>
+        <v>311.4701455420613</v>
       </c>
       <c r="R10">
-        <v>4464.713321449978</v>
+        <v>2803.231309878551</v>
       </c>
       <c r="S10">
-        <v>0.03010184157501739</v>
+        <v>0.07033352435841407</v>
       </c>
       <c r="T10">
-        <v>0.03010184157501739</v>
+        <v>0.07033352435841407</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.578504666666667</v>
+        <v>7.578504666666666</v>
       </c>
       <c r="H11">
         <v>22.735514</v>
       </c>
       <c r="I11">
-        <v>0.3245686272105304</v>
+        <v>0.7386743572403152</v>
       </c>
       <c r="J11">
-        <v>0.3245686272105304</v>
+        <v>0.7386743572403152</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N11">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O11">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P11">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q11">
-        <v>2133.983457766145</v>
+        <v>848.9775164917482</v>
       </c>
       <c r="R11">
-        <v>19205.85111989531</v>
+        <v>7640.797648425734</v>
       </c>
       <c r="S11">
-        <v>0.1294890502704668</v>
+        <v>0.1917088417318466</v>
       </c>
       <c r="T11">
-        <v>0.1294890502704668</v>
+        <v>0.1917088417318466</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>7.305763</v>
+        <v>0.30232</v>
       </c>
       <c r="H12">
-        <v>21.917289</v>
+        <v>0.90696</v>
       </c>
       <c r="I12">
-        <v>0.312887775614242</v>
+        <v>0.02946703096497736</v>
       </c>
       <c r="J12">
-        <v>0.312887775614242</v>
+        <v>0.02946703096497736</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N12">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O12">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P12">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q12">
-        <v>163.2456840139203</v>
+        <v>5.808520213413334</v>
       </c>
       <c r="R12">
-        <v>1469.211156125283</v>
+        <v>52.27668192072001</v>
       </c>
       <c r="S12">
-        <v>0.009905666563059058</v>
+        <v>0.001311630356114751</v>
       </c>
       <c r="T12">
-        <v>0.00990566656305906</v>
+        <v>0.001311630356114751</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>7.305763</v>
+        <v>0.30232</v>
       </c>
       <c r="H13">
-        <v>21.917289</v>
+        <v>0.90696</v>
       </c>
       <c r="I13">
-        <v>0.312887775614242</v>
+        <v>0.02946703096497736</v>
       </c>
       <c r="J13">
-        <v>0.312887775614242</v>
+        <v>0.02946703096497736</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>277.341392</v>
       </c>
       <c r="O13">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P13">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q13">
-        <v>675.3968266806986</v>
+        <v>27.94861654314666</v>
       </c>
       <c r="R13">
-        <v>6078.571440126288</v>
+        <v>251.53754888832</v>
       </c>
       <c r="S13">
-        <v>0.04098274207529247</v>
+        <v>0.006311117551893675</v>
       </c>
       <c r="T13">
-        <v>0.04098274207529247</v>
+        <v>0.006311117551893675</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>7.305763</v>
+        <v>0.30232</v>
       </c>
       <c r="H14">
-        <v>21.917289</v>
+        <v>0.90696</v>
       </c>
       <c r="I14">
-        <v>0.312887775614242</v>
+        <v>0.02946703096497736</v>
       </c>
       <c r="J14">
-        <v>0.312887775614242</v>
+        <v>0.02946703096497736</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N14">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O14">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P14">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q14">
-        <v>1782.34769410506</v>
+        <v>50.44451106386666</v>
       </c>
       <c r="R14">
-        <v>16041.12924694554</v>
+        <v>454.0005995747999</v>
       </c>
       <c r="S14">
-        <v>0.1081519677772087</v>
+        <v>0.01139094805212924</v>
       </c>
       <c r="T14">
-        <v>0.1081519677772087</v>
+        <v>0.01139094805212924</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>7.305763</v>
+        <v>0.30232</v>
       </c>
       <c r="H15">
-        <v>21.917289</v>
+        <v>0.90696</v>
       </c>
       <c r="I15">
-        <v>0.312887775614242</v>
+        <v>0.02946703096497736</v>
       </c>
       <c r="J15">
-        <v>0.312887775614242</v>
+        <v>0.02946703096497736</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N15">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O15">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P15">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q15">
-        <v>478.2259360026836</v>
+        <v>12.42509684192</v>
       </c>
       <c r="R15">
-        <v>4304.033424024153</v>
+        <v>111.82587157728</v>
       </c>
       <c r="S15">
-        <v>0.02901851091784735</v>
+        <v>0.002805729100829091</v>
       </c>
       <c r="T15">
-        <v>0.02901851091784735</v>
+        <v>0.002805729100829092</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>7.305763</v>
+        <v>0.30232</v>
       </c>
       <c r="H16">
-        <v>21.917289</v>
+        <v>0.90696</v>
       </c>
       <c r="I16">
-        <v>0.312887775614242</v>
+        <v>0.02946703096497736</v>
       </c>
       <c r="J16">
-        <v>0.312887775614242</v>
+        <v>0.02946703096497736</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N16">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O16">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P16">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q16">
-        <v>2057.183847485476</v>
+        <v>33.86721973197333</v>
       </c>
       <c r="R16">
-        <v>18514.65462736928</v>
+        <v>304.80497758776</v>
       </c>
       <c r="S16">
-        <v>0.1248288882808345</v>
+        <v>0.007647605904010598</v>
       </c>
       <c r="T16">
-        <v>0.1248288882808345</v>
+        <v>0.007647605904010599</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.398048</v>
+        <v>0.7763563333333333</v>
       </c>
       <c r="H17">
-        <v>1.194144</v>
+        <v>2.329069</v>
       </c>
       <c r="I17">
-        <v>0.01704741220153156</v>
+        <v>0.07567119646133109</v>
       </c>
       <c r="J17">
-        <v>0.01704741220153156</v>
+        <v>0.07567119646133111</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N17">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O17">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P17">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q17">
-        <v>8.894295918218667</v>
+        <v>14.91625249728145</v>
       </c>
       <c r="R17">
-        <v>80.04866326396801</v>
+        <v>134.246272475533</v>
       </c>
       <c r="S17">
-        <v>0.0005397014335248121</v>
+        <v>0.003368260564838392</v>
       </c>
       <c r="T17">
-        <v>0.0005397014335248123</v>
+        <v>0.003368260564838392</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.398048</v>
+        <v>0.7763563333333333</v>
       </c>
       <c r="H18">
-        <v>1.194144</v>
+        <v>2.329069</v>
       </c>
       <c r="I18">
-        <v>0.01704741220153156</v>
+        <v>0.07567119646133109</v>
       </c>
       <c r="J18">
-        <v>0.01704741220153156</v>
+        <v>0.07567119646133111</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>277.341392</v>
       </c>
       <c r="O18">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P18">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q18">
-        <v>36.79839546760533</v>
+        <v>71.77191539156088</v>
       </c>
       <c r="R18">
-        <v>331.185559208448</v>
+        <v>645.947238524048</v>
       </c>
       <c r="S18">
-        <v>0.002232908255795598</v>
+        <v>0.01620692009071122</v>
       </c>
       <c r="T18">
-        <v>0.002232908255795598</v>
+        <v>0.01620692009071123</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.398048</v>
+        <v>0.7763563333333333</v>
       </c>
       <c r="H19">
-        <v>1.194144</v>
+        <v>2.329069</v>
       </c>
       <c r="I19">
-        <v>0.01704741220153156</v>
+        <v>0.07567119646133109</v>
       </c>
       <c r="J19">
-        <v>0.01704741220153156</v>
+        <v>0.07567119646133111</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N19">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O19">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P19">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q19">
-        <v>97.10962906176</v>
+        <v>129.5412663612605</v>
       </c>
       <c r="R19">
-        <v>873.9866615558401</v>
+        <v>1165.871397251345</v>
       </c>
       <c r="S19">
-        <v>0.005892563784204659</v>
+        <v>0.02925190084328371</v>
       </c>
       <c r="T19">
-        <v>0.00589256378420466</v>
+        <v>0.02925190084328372</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.398048</v>
+        <v>0.7763563333333333</v>
       </c>
       <c r="H20">
-        <v>1.194144</v>
+        <v>2.329069</v>
       </c>
       <c r="I20">
-        <v>0.01704741220153156</v>
+        <v>0.07567119646133109</v>
       </c>
       <c r="J20">
-        <v>0.01704741220153156</v>
+        <v>0.07567119646133111</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N20">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O20">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P20">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q20">
-        <v>26.05571483416533</v>
+        <v>31.90759005525466</v>
       </c>
       <c r="R20">
-        <v>234.501433507488</v>
+        <v>287.1683104972919</v>
       </c>
       <c r="S20">
-        <v>0.001581047761038416</v>
+        <v>0.007205099090520984</v>
       </c>
       <c r="T20">
-        <v>0.001581047761038416</v>
+        <v>0.007205099090520985</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.398048</v>
+        <v>0.7763563333333333</v>
       </c>
       <c r="H21">
-        <v>1.194144</v>
+        <v>2.329069</v>
       </c>
       <c r="I21">
-        <v>0.01704741220153156</v>
+        <v>0.07567119646133109</v>
       </c>
       <c r="J21">
-        <v>0.01704741220153156</v>
+        <v>0.07567119646133111</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N21">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O21">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P21">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q21">
-        <v>112.0838324653973</v>
+        <v>86.97086045021544</v>
       </c>
       <c r="R21">
-        <v>1008.754492188576</v>
+        <v>782.7377440519391</v>
       </c>
       <c r="S21">
-        <v>0.006801190966968076</v>
+        <v>0.01963901587197678</v>
       </c>
       <c r="T21">
-        <v>0.006801190966968076</v>
+        <v>0.01963901587197679</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.002077666666667</v>
+        <v>1.49654</v>
       </c>
       <c r="H22">
-        <v>24.006233</v>
+        <v>4.48962</v>
       </c>
       <c r="I22">
-        <v>0.3427092120858201</v>
+        <v>0.1458672615782192</v>
       </c>
       <c r="J22">
-        <v>0.3427092120858201</v>
+        <v>0.1458672615782192</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.34478233333333</v>
+        <v>19.21315233333334</v>
       </c>
       <c r="N22">
-        <v>67.034347</v>
+        <v>57.63945700000001</v>
       </c>
       <c r="O22">
-        <v>0.03165884810812076</v>
+        <v>0.04451179209991234</v>
       </c>
       <c r="P22">
-        <v>0.03165884810812077</v>
+        <v>0.04451179209991233</v>
       </c>
       <c r="Q22">
-        <v>178.8046836760945</v>
+        <v>28.75325099292668</v>
       </c>
       <c r="R22">
-        <v>1609.242153084851</v>
+        <v>258.7792589363401</v>
       </c>
       <c r="S22">
-        <v>0.01084977889067872</v>
+        <v>0.006492813221553224</v>
       </c>
       <c r="T22">
-        <v>0.01084977889067872</v>
+        <v>0.006492813221553222</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.002077666666667</v>
+        <v>1.49654</v>
       </c>
       <c r="H23">
-        <v>24.006233</v>
+        <v>4.48962</v>
       </c>
       <c r="I23">
-        <v>0.3427092120858201</v>
+        <v>0.1458672615782192</v>
       </c>
       <c r="J23">
-        <v>0.3427092120858201</v>
+        <v>0.1458672615782192</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>277.341392</v>
       </c>
       <c r="O23">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="P23">
-        <v>0.1309822411400946</v>
+        <v>0.2141755495962477</v>
       </c>
       <c r="Q23">
-        <v>739.7691196551484</v>
+        <v>138.3508289278934</v>
       </c>
       <c r="R23">
-        <v>6657.922076896335</v>
+        <v>1245.15746035104</v>
       </c>
       <c r="S23">
-        <v>0.04488882065835673</v>
+        <v>0.03124120091661473</v>
       </c>
       <c r="T23">
-        <v>0.04488882065835671</v>
+        <v>0.03124120091661472</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.002077666666667</v>
+        <v>1.49654</v>
       </c>
       <c r="H24">
-        <v>24.006233</v>
+        <v>4.48962</v>
       </c>
       <c r="I24">
-        <v>0.3427092120858201</v>
+        <v>0.1458672615782192</v>
       </c>
       <c r="J24">
-        <v>0.3427092120858201</v>
+        <v>0.1458672615782192</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>243.96462</v>
+        <v>166.8580016666666</v>
       </c>
       <c r="N24">
-        <v>731.89386</v>
+        <v>500.5740049999999</v>
       </c>
       <c r="O24">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="P24">
-        <v>0.3456573768818275</v>
+        <v>0.3865658561145097</v>
       </c>
       <c r="Q24">
-        <v>1952.22383715882</v>
+        <v>249.7096738142333</v>
       </c>
       <c r="R24">
-        <v>17570.01453442938</v>
+        <v>2247.3870643281</v>
       </c>
       <c r="S24">
-        <v>0.1184599672828225</v>
+        <v>0.05638730285106344</v>
       </c>
       <c r="T24">
-        <v>0.1184599672828225</v>
+        <v>0.05638730285106344</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.002077666666667</v>
+        <v>1.49654</v>
       </c>
       <c r="H25">
-        <v>24.006233</v>
+        <v>4.48962</v>
       </c>
       <c r="I25">
-        <v>0.3427092120858201</v>
+        <v>0.1458672615782192</v>
       </c>
       <c r="J25">
-        <v>0.3427092120858201</v>
+        <v>0.1458672615782192</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>65.45872566666667</v>
+        <v>41.09915599999999</v>
       </c>
       <c r="N25">
-        <v>196.376177</v>
+        <v>123.297468</v>
       </c>
       <c r="O25">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="P25">
-        <v>0.09274415039347572</v>
+        <v>0.09521587377309249</v>
       </c>
       <c r="Q25">
-        <v>523.8058067456934</v>
+        <v>61.50653092024</v>
       </c>
       <c r="R25">
-        <v>4714.252260711241</v>
+        <v>553.55877828216</v>
       </c>
       <c r="S25">
-        <v>0.03178427470691687</v>
+        <v>0.01388887876605838</v>
       </c>
       <c r="T25">
-        <v>0.03178427470691686</v>
+        <v>0.01388887876605838</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.002077666666667</v>
+        <v>1.49654</v>
       </c>
       <c r="H26">
-        <v>24.006233</v>
+        <v>4.48962</v>
       </c>
       <c r="I26">
-        <v>0.3427092120858201</v>
+        <v>0.1458672615782192</v>
       </c>
       <c r="J26">
-        <v>0.3427092120858201</v>
+        <v>0.1458672615782192</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>281.5837096666667</v>
+        <v>112.0244103333333</v>
       </c>
       <c r="N26">
-        <v>844.751129</v>
+        <v>336.073231</v>
       </c>
       <c r="O26">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="P26">
-        <v>0.3989573834764815</v>
+        <v>0.2595309284162377</v>
       </c>
       <c r="Q26">
-        <v>2253.254714420784</v>
+        <v>167.6490110402467</v>
       </c>
       <c r="R26">
-        <v>20279.29242978706</v>
+        <v>1508.84109936222</v>
       </c>
       <c r="S26">
-        <v>0.1367263705470454</v>
+        <v>0.03785706582292943</v>
       </c>
       <c r="T26">
-        <v>0.1367263705470453</v>
+        <v>0.03785706582292943</v>
       </c>
     </row>
   </sheetData>
